--- a/Cherry.xlsx
+++ b/Cherry.xlsx
@@ -416,11 +416,9 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C4"/>
+  <x:dimension ref="A1:C1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="G8" sqref="G8 G8:G8"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
@@ -429,7 +427,7 @@
     <x:col min="3" max="3" width="8.570312" style="2" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -440,7 +438,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -451,7 +449,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -462,7 +460,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:3">
       <x:c r="A4" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -473,7 +471,7 @@
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7">
+    <x:row r="5" spans="1:3">
       <x:c r="A5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -484,7 +482,6 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
